--- a/public/test-bulk.xlsx
+++ b/public/test-bulk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,13 +44,13 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>Sub</t>
-  </si>
-  <si>
     <t>Labels</t>
   </si>
   <si>
-    <t>labe1, labe3, label4</t>
+    <t>SubParent</t>
+  </si>
+  <si>
+    <t>labe1, labe3, label4, label5</t>
   </si>
 </sst>
 </file>
@@ -378,10 +378,10 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
